--- a/results/agv_logs_M1.xlsx
+++ b/results/agv_logs_M1.xlsx
@@ -513,12 +513,12 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>7.816638973643373</v>
+        <v>9.816638973643373</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -533,12 +533,12 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>7.816638973643373</v>
+        <v>9.816638973643373</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -553,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
